--- a/reports/information/mean_variance.xlsx
+++ b/reports/information/mean_variance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,118 +434,78 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>msl</t>
-        </is>
+      <c r="A2" t="n">
+        <v>100985.0790837896</v>
       </c>
       <c r="B2" t="n">
-        <v>100985.0790837896</v>
-      </c>
-      <c r="C2" t="n">
         <v>34283.13210572863</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>sst</t>
-        </is>
+      <c r="A3" t="n">
+        <v>28.42204936168152</v>
       </c>
       <c r="B3" t="n">
-        <v>28.42204936168152</v>
-      </c>
-      <c r="C3" t="n">
         <v>0.1358166724001087</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>u10</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1.379611987329046</v>
       </c>
       <c r="B4" t="n">
-        <v>1.379611987329046</v>
-      </c>
-      <c r="C4" t="n">
         <v>1.996730305740986</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>v10</t>
-        </is>
+      <c r="A5" t="n">
+        <v>-0.45134096261441</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.45134096261441</v>
-      </c>
-      <c r="C5" t="n">
         <v>2.346570892794074</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ws</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2.688490978411134</v>
       </c>
       <c r="B6" t="n">
-        <v>2.688490978411134</v>
-      </c>
-      <c r="C6" t="n">
         <v>1.0615750685333</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>t2m</t>
-        </is>
+      <c r="A7" t="n">
+        <v>27.00017956129934</v>
       </c>
       <c r="B7" t="n">
-        <v>27.00017956129934</v>
-      </c>
-      <c r="C7" t="n">
         <v>1.951513445550494</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>rh</t>
-        </is>
+      <c r="A8" t="n">
+        <v>80.55884932607803</v>
       </c>
       <c r="B8" t="n">
-        <v>80.55884932607803</v>
-      </c>
-      <c r="C8" t="n">
         <v>91.22381474448366</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+      <c r="A9" t="n">
+        <v>3.819465898377068</v>
       </c>
       <c r="B9" t="n">
-        <v>3.819465898377068</v>
-      </c>
-      <c r="C9" t="n">
         <v>53.37021368714468</v>
       </c>
     </row>

--- a/reports/information/mean_variance.xlsx
+++ b/reports/information/mean_variance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,78 +434,118 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>msl</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>100985.0790837896</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>34283.13210572863</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>sst</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>28.42204936168152</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1358166724001087</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>u10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1.379611987329046</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>1.996730305740986</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>v10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-0.45134096261441</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2.346570892794074</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2.688490978411134</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>1.0615750685333</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>t2m</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>27.00017956129934</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>1.951513445550494</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>rh</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>80.55884932607803</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>91.22381474448366</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>tp</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>3.819465898377068</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>53.37021368714468</v>
       </c>
     </row>
